--- a/meta/program/BlancoKeyGeneratorKtResourceBundle.xlsx
+++ b/meta/program/BlancoKeyGeneratorKtResourceBundle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoKeyGeneratorKt/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5BEBC8-6A8C-334B-A718-30464D340309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BFE81A-2D61-B44E-9574-F8F9F01B4879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10780" yWindow="6180" windowWidth="28800" windowHeight="17540" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ja" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="116">
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
@@ -520,78 +520,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># 言語毎の共通項目のタグ名</t>
-    <rPh sb="2" eb="4">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>キョウツウコウモク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blancovalueobjectcs-common</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blancovalueobjectjs-common</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blancovalueobjectvb-common</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blancovalueobjectphp-common</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blancovalueobjectruby-common</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blancovalueobjectpython-common</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>META2XML.ELEMENT_COMMON_CS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>META2XML.ELEMENT_COMMON_JS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>META2XML.ELEMENT_COMMON_VB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>META2XML.ELEMENT_COMMON_PHP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>META2XML.ELEMENT_COMMON_RUBY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>META2XML.ELEMENT_COMMON_PYTHON</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blancovalueobjectkt-common</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>META2XML.ELEMENT_COMMON_KT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>XML2SOURCE_FILE.ERR007</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -615,19 +543,107 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>blancokeygeneratorkt-common</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blancokeygeneratorkt-list</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blancokeygeneratorkt-extends</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>blancokeygeneratorkt-implements</t>
+    <t>blancokeygenerator-common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancokeygenerator-list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancokeygenerator-extends</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancokeygenerator-implements</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_BUCKETCOMMON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancokeygenerator-bucketcommon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_BUCKETLIST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancokeygenerator-bucketlist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_COMMON_CS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancovalueobjectcs-common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_COMMON_JS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancovalueobjectjs-common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_COMMON_VB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancovalueobjectvb-common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_COMMON_PHP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancovalueobjectphp-common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_COMMON_RUBY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancovalueobjectruby-common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_COMMON_PYTHON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancovalueobjectpython-common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>META2XML.ELEMENT_COMMON_KT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blancovalueobjectkt-common</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># ValueObjectの言語毎の共通項目のタグ名</t>
+    <rPh sb="14" eb="16">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>キョウツウコウモク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1460,10 +1476,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1508,7 +1524,7 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="15"/>
@@ -1532,7 +1548,7 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
@@ -1543,7 +1559,7 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1630,7 +1646,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="28">
-        <f t="shared" ref="A17:A81" si="0">A16+1</f>
+        <f t="shared" ref="A17:A80" si="0">A16+1</f>
         <v>3</v>
       </c>
       <c r="B17" s="23"/>
@@ -1770,10 +1786,10 @@
         <v>13</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -1787,10 +1803,10 @@
         <v>14</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -1803,17 +1819,12 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>110</v>
-      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
-      <c r="I29" s="33"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="28">
@@ -1821,27 +1832,33 @@
         <v>16</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
+      <c r="I30" s="33"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="28">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="20"/>
+      <c r="B31" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
+      <c r="I31" s="33"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="28">
@@ -1849,15 +1866,16 @@
         <v>18</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
+      <c r="I32" s="33"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="28">
@@ -1865,10 +1883,10 @@
         <v>19</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
@@ -1893,10 +1911,10 @@
         <v>21</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
@@ -1909,10 +1927,10 @@
         <v>22</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
@@ -1924,12 +1942,8 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>30</v>
-      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
@@ -1940,8 +1954,12 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="20"/>
+      <c r="B38" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
@@ -1953,10 +1971,10 @@
         <v>25</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
@@ -1969,10 +1987,10 @@
         <v>26</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
@@ -1984,12 +2002,8 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B41" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
@@ -2001,10 +2015,10 @@
         <v>28</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
@@ -2016,8 +2030,12 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="20"/>
+      <c r="B43" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
@@ -2028,9 +2046,11 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B44" s="23"/>
+      <c r="B44" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="C44" s="20" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
@@ -2042,9 +2062,11 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B45" s="23"/>
+      <c r="B45" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="C45" s="20" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -2057,9 +2079,7 @@
         <v>32</v>
       </c>
       <c r="B46" s="23"/>
-      <c r="C46" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C46" s="20"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
@@ -2071,7 +2091,9 @@
         <v>33</v>
       </c>
       <c r="B47" s="23"/>
-      <c r="C47" s="20"/>
+      <c r="C47" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="D47" s="21"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
@@ -2084,7 +2106,7 @@
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="20" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
@@ -2096,11 +2118,9 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>45</v>
-      </c>
+      <c r="B49" s="23"/>
       <c r="C49" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
@@ -2112,12 +2132,8 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B50" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="B50" s="23"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
@@ -2128,11 +2144,9 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B51" s="23" t="s">
-        <v>47</v>
-      </c>
+      <c r="B51" s="23"/>
       <c r="C51" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
@@ -2145,10 +2159,10 @@
         <v>38</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
@@ -2161,10 +2175,10 @@
         <v>39</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="21"/>
@@ -2177,10 +2191,10 @@
         <v>40</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="21"/>
@@ -2193,10 +2207,10 @@
         <v>41</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
@@ -2208,8 +2222,12 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="20"/>
+      <c r="B56" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
@@ -2221,10 +2239,10 @@
         <v>43</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D57" s="21"/>
       <c r="E57" s="21"/>
@@ -2237,10 +2255,10 @@
         <v>44</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D58" s="21"/>
       <c r="E58" s="21"/>
@@ -2252,12 +2270,8 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B59" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
       <c r="F59" s="21"/>
@@ -2268,8 +2282,12 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="20"/>
+      <c r="B60" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
@@ -2281,10 +2299,10 @@
         <v>47</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
@@ -2297,10 +2315,10 @@
         <v>48</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
@@ -2312,12 +2330,8 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B63" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="B63" s="23"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="21"/>
       <c r="E63" s="21"/>
       <c r="F63" s="21"/>
@@ -2328,8 +2342,12 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="20"/>
+      <c r="B64" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="D64" s="21"/>
       <c r="E64" s="21"/>
       <c r="F64" s="21"/>
@@ -2341,10 +2359,10 @@
         <v>51</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
@@ -2357,10 +2375,10 @@
         <v>52</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
@@ -2372,12 +2390,8 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B67" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="B67" s="23"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="21"/>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
@@ -2389,10 +2403,10 @@
         <v>54</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D68" s="21"/>
       <c r="E68" s="21"/>
@@ -2404,8 +2418,12 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="20"/>
+      <c r="B69" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="D69" s="21"/>
       <c r="E69" s="21"/>
       <c r="F69" s="21"/>
@@ -2417,10 +2435,10 @@
         <v>56</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D70" s="21"/>
       <c r="E70" s="21"/>
@@ -2433,10 +2451,10 @@
         <v>57</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
@@ -2448,12 +2466,8 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B72" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="21"/>
       <c r="E72" s="21"/>
       <c r="F72" s="21"/>
@@ -2465,10 +2479,10 @@
         <v>59</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
@@ -2480,8 +2494,12 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="20"/>
+      <c r="B74" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
       <c r="F74" s="21"/>
@@ -2493,10 +2511,10 @@
         <v>61</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
@@ -2508,8 +2526,12 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="20"/>
+      <c r="B76" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="D76" s="21"/>
       <c r="E76" s="21"/>
       <c r="F76" s="21"/>
@@ -2521,9 +2543,7 @@
         <v>63</v>
       </c>
       <c r="B77" s="23"/>
-      <c r="C77" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C77" s="20"/>
       <c r="D77" s="21"/>
       <c r="E77" s="21"/>
       <c r="F77" s="21"/>
@@ -2534,9 +2554,11 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B78" s="23"/>
+      <c r="B78" s="23" t="s">
+        <v>71</v>
+      </c>
       <c r="C78" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D78" s="21"/>
       <c r="E78" s="21"/>
@@ -2549,9 +2571,7 @@
         <v>65</v>
       </c>
       <c r="B79" s="23"/>
-      <c r="C79" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C79" s="20"/>
       <c r="D79" s="21"/>
       <c r="E79" s="21"/>
       <c r="F79" s="21"/>
@@ -2563,7 +2583,9 @@
         <v>66</v>
       </c>
       <c r="B80" s="23"/>
-      <c r="C80" s="20"/>
+      <c r="C80" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="D80" s="21"/>
       <c r="E80" s="21"/>
       <c r="F80" s="21"/>
@@ -2571,14 +2593,12 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A81:A90" si="1">A80+1</f>
         <v>67</v>
       </c>
-      <c r="B81" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="B81" s="23"/>
       <c r="C81" s="20" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D81" s="21"/>
       <c r="E81" s="21"/>
@@ -2587,14 +2607,12 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="28">
-        <f t="shared" ref="A82:A87" si="1">A81+1</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B82" s="23" t="s">
-        <v>96</v>
-      </c>
+      <c r="B82" s="23"/>
       <c r="C82" s="20" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D82" s="21"/>
       <c r="E82" s="21"/>
@@ -2606,12 +2624,8 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B83" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>91</v>
-      </c>
+      <c r="B83" s="23"/>
+      <c r="C83" s="20"/>
       <c r="D83" s="21"/>
       <c r="E83" s="21"/>
       <c r="F83" s="21"/>
@@ -2623,10 +2637,10 @@
         <v>70</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D84" s="21"/>
       <c r="E84" s="21"/>
@@ -2639,10 +2653,10 @@
         <v>71</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D85" s="21"/>
       <c r="E85" s="21"/>
@@ -2655,10 +2669,10 @@
         <v>72</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D86" s="21"/>
       <c r="E86" s="21"/>
@@ -2671,10 +2685,10 @@
         <v>73</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D87" s="21"/>
       <c r="E87" s="21"/>
@@ -2682,13 +2696,61 @@
       <c r="G87" s="22"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="29"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="27"/>
+      <c r="A88" s="28">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="22"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="28">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="22"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="28">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="22"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="29"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
